--- a/launch_apr21_2021.xlsx
+++ b/launch_apr21_2021.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shohei/Documents/MATLAB/Projects/rocket/6dof_visualizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF5F8F0-B8E4-4A4C-A09C-8F3246DA38EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE021409-9354-714D-ADDD-9470F6591711}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rocket_data 20-04-21" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="2" r:id="rId2"/>
+    <sheet name="rocket_data 20-04-21 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Index</t>
   </si>
@@ -61,12 +62,30 @@
   <si>
     <t>isApogee3</t>
   </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>psi</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1639,7 +1658,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1721,7 +1740,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1826,6 +1845,996 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rocket_data 20-04-21 (2)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Altitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'rocket_data 20-04-21 (2)'!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'rocket_data 20-04-21 (2)'!$C$2:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1567.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1566.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1566.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1567.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1567.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1569.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1570.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1572.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1574.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1574.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1572.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1575.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1575.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1575.23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1573.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1572.73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1573.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1573.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1572.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1571.87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1572.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1572.83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1569.47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1570.33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1572.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1572.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1572.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1566.68</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1566.49</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1567.26</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1566.39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1566.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1565.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D64-3249-A4C5-6612DDF1CBBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1498477232"/>
+        <c:axId val="1656502000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1498477232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1656502000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1656502000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498477232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.94799242250443294"/>
+          <c:y val="7.2664379659531819E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rocket_data 20-04-21 (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'rocket_data 20-04-21 (2)'!$A$2:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'rocket_data 20-04-21 (2)'!$G$2:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.62</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.09</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-14.47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.73</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-17.29</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0AA-224C-9063-F2FE6551C037}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1656199728"/>
+        <c:axId val="1675478768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1656199728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1675478768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1675478768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1656199728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1906,6 +2915,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2423,6 +3512,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3030,7 +5151,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
+    <xdr:ext cx="9309100" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2" title="Chart">
@@ -3056,6 +5177,87 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>766232</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>93135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>918633</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160868</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD719AC-8327-E640-95D5-5A2BBF3E67A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>785283</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>937684</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEFE15A-C102-E94A-AEC9-32955FAFE3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3361,13 +5563,13 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="2" sqref="A1:A1048576 H1 H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" customHeight="1">
+    <row r="1" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3408,7 +5610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3449,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3490,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3531,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3572,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3613,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3654,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3695,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3736,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3777,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3818,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3859,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3900,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3941,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3982,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4023,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4064,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4105,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4146,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4187,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4228,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4269,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4310,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4351,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4392,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4433,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4474,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4515,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4556,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4597,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4638,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4679,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4720,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4759,6 +6961,1499 @@
       </c>
       <c r="M34" s="1">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C049E77-70AF-C54F-BC6A-38298D3ABB08}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>240</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1567.16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1567.06</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-12.7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="J2">
+        <f>B2/1000</f>
+        <v>0.24</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>C2</f>
+        <v>1567.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>360</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1566.78</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1567.05</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-17.43</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J34" si="0">B3/1000</f>
+        <v>0.36</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M34" si="1">C3</f>
+        <v>1566.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>480</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1566.68</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1567.03</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-19.46</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>1566.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>600</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1567.06</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1567.08</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1.76</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-22.45</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>1567.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>720</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1567.64</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1567.19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-3.42</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-17.18</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>1567.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>840</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1569.08</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1567.44</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1.61</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-30.39</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>1569.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>960</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1570.71</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1567.86</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-0.92</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-29.45</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.31</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1570.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1080</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1572.25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1568.42</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1.46</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-27.04</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>1572.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1574.65</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1569.21</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-3.66</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-22.21</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>1574.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1320</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1574.17</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1569.92</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-3.66</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-20.86</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>1574.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1440</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1572.25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1570.37</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.73</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-12.29</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.64</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1572.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1560</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1575.81</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1571.17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-9.4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1575.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1680</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1575.52</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1571.87</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.73</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-0.77</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-9.36</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-0.34</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>1575.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1575.23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1572.5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-3.43</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-8.85</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>1575.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1920</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1573.5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1572.9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-3.26</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-3.69</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1.92</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>1573.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2040</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1572.73</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1573.17</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-2.27</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-0.65</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>1572.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2160</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1573.4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1573.49</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.28</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-2.35</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1.65</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>1573.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2280</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1573.31</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1573.78</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-3.82</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>1573.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1572.54</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1573.95</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.32</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-2.4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-2.97</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>1572.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2520</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1571.87</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1574.02</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-2.62</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-0.21</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>2.52</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>1571.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2640</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1572.15</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1574.11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-3.72</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2.64</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>1572.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2760</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1572.83</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1574.27</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-3.79</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-1.29</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4.12</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>2.76</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>1572.83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2880</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1569.47</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1574.03</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-0.93</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-3.14</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>2.88</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>1569.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1570.33</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1573.88</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-0.34</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>1570.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3120</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1572.25</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1573.94</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-4.62</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-1.62</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>3.12</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>1572.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3240</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1572.25</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1573.94</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.58</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-5.37</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-2.71</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>3.24</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>1572.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3360</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1572.25</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1573.41</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-0.48</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-2.74</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>3.36</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>1572.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3480</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1566.68</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1572.77</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>23.09</v>
+      </c>
+      <c r="H29" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-15.44</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>3.48</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>1566.68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1566.49</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1572.28</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-6.1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="I30" s="1">
+        <v>12.53</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>1566.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3720</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1567.26</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1571.85</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-14.47</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>3.72</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>1567.26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3840</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1566.39</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1571.38</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-5.73</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-18.670000000000002</v>
+      </c>
+      <c r="I32" s="1">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>3.84</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>1566.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3960</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1566.1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1570.8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-17.29</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-22.45</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-11.53</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>3.96</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>1566.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4080</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1565.91</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1570.28</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-0.22</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-12.5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-12.42</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>4.08</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>1565.91</v>
       </c>
     </row>
   </sheetData>
